--- a/data/processed/unvfvt23/ptAssessments.xlsx
+++ b/data/processed/unvfvt23/ptAssessments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myagh\fc-performeter\data\processed\unvfvt23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D762F1F4-0238-4552-B454-1E07186CB6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735041F-770C-41AB-B968-85497F51D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="115">
   <si>
     <t>rid</t>
   </si>
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -503,9 +503,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -518,13 +515,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -532,6 +529,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="180">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -681,16 +684,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -833,6 +836,54 @@
       <font>
         <b val="0"/>
       </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -876,16 +927,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1101,16 +1152,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1145,6 +1196,127 @@
       <font>
         <b val="0"/>
       </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1152,193 +1324,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1356,16 +1341,16 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1540,6 +1525,18 @@
         <b val="0"/>
       </font>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1855,11 +1852,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}" name="Table1" displayName="Table1" ref="A1:AF27" totalsRowShown="0" headerRowDxfId="179" headerRowBorderDxfId="178" tableBorderDxfId="177">
-  <autoFilter ref="A1:AF27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}">
-    <filterColumn colId="19">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AF27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}"/>
   <tableColumns count="32">
     <tableColumn id="21" xr3:uid="{FA716E8C-C197-4E1B-8228-CA36E8925839}" name="#" dataDxfId="176"/>
     <tableColumn id="23" xr3:uid="{FBAE6F81-C772-4BBE-B34D-21AC76261525}" name="as" dataDxfId="175"/>
@@ -1900,114 +1893,102 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F2CE6B4F-F5B9-4D41-A0BC-641E0C20EA1A}" name="Table110" displayName="Table110" ref="A1:Z27" totalsRowShown="0" headerRowDxfId="144" headerRowBorderDxfId="143" tableBorderDxfId="142">
-  <autoFilter ref="A1:Z27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}">
-    <filterColumn colId="20">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}"/>
   <tableColumns count="26">
     <tableColumn id="21" xr3:uid="{35872553-0979-4096-ACB5-BEDC1DBBDCF5}" name="#" dataDxfId="141"/>
-    <tableColumn id="23" xr3:uid="{F9173787-9D06-4736-9EE8-48D0825FA33F}" name="as" dataDxfId="83"/>
-    <tableColumn id="1" xr3:uid="{0BAD76B7-E7E0-4ED6-B855-8AD3469CCBE5}" name="rid" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{D7C61573-1AF4-4D52-83A0-50DB660BB265}" name="fcid" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{72533049-D6EF-42E3-A658-1B4158D165EC}" name="date" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{B26F2975-B902-46F0-8A06-3E3557F1C77F}" name="family_of_missing" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{3E8672DD-263D-478A-8B47-C8B4F1F053EA}" name="survivor_of_detention" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{5D0C7157-6256-4C2F-A14D-630FFB99C9A4}" name="primary_torture" dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{31FB07F7-9333-4DCE-BE04-3D419F21D2CA}" name="secondary_torture" dataDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{E5AAE710-3A81-4393-99B7-746D7C6BC67E}" name="sexual_violation_a" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{9E7B54E6-101C-439E-B470-A93D49A68E69}" name="sexual_violation_p" dataDxfId="132"/>
-    <tableColumn id="11" xr3:uid="{9411EED7-2310-4056-A964-39A04B320CDE}" name="hrd" dataDxfId="131"/>
-    <tableColumn id="12" xr3:uid="{4BA7F5B9-7B34-4144-93F9-1440B4DACB3A}" name="journalist" dataDxfId="130"/>
-    <tableColumn id="13" xr3:uid="{BAEA4043-1C0A-4FC7-A42F-3CB441A7EA1E}" name="wov" dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{F4E60821-DEA9-4708-835F-082D5E2CCCB3}" name="stgbv" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{42B7DFB1-7568-4EE3-B879-69536948FBA6}" name="lgbti" dataDxfId="127"/>
-    <tableColumn id="16" xr3:uid="{48B76606-A891-428A-841C-6440788D899E}" name="other" dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{215228D0-8DFB-4065-B453-BDC8846B1FB4}" name="sex" dataDxfId="125"/>
-    <tableColumn id="18" xr3:uid="{B81440C1-BADA-46EF-B944-A26561C22CC7}" name="age" dataDxfId="124"/>
-    <tableColumn id="20" xr3:uid="{7BB2464A-355F-43D2-BDFD-ED163019D8BE}" name="ptc" dataDxfId="123"/>
-    <tableColumn id="22" xr3:uid="{272F2FF9-8D61-4320-9DD6-F1A139A78244}" name="pain_now" dataDxfId="122"/>
-    <tableColumn id="24" xr3:uid="{FF37E09C-7857-42F1-BADA-9ED0A63B5A19}" name="pain_last_week" dataDxfId="121"/>
-    <tableColumn id="25" xr3:uid="{46B161EE-0676-4C5E-A345-ED0455ACE386}" name="sleep_in_30m" dataDxfId="120"/>
-    <tableColumn id="26" xr3:uid="{59817D1A-91A8-4870-BC0A-0DB980BF726E}" name="discomfort_when_trying_to_sleep" dataDxfId="119"/>
-    <tableColumn id="27" xr3:uid="{298E4A07-287D-4FB8-8467-D682716C7F03}" name="sleep_through_night_ability" dataDxfId="118"/>
-    <tableColumn id="28" xr3:uid="{11919B0E-186E-4C6D-9D25-9388A1E59043}" name="sleep_quality" dataDxfId="117"/>
+    <tableColumn id="23" xr3:uid="{F9173787-9D06-4736-9EE8-48D0825FA33F}" name="as" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{0BAD76B7-E7E0-4ED6-B855-8AD3469CCBE5}" name="rid" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{D7C61573-1AF4-4D52-83A0-50DB660BB265}" name="fcid" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{72533049-D6EF-42E3-A658-1B4158D165EC}" name="date" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{B26F2975-B902-46F0-8A06-3E3557F1C77F}" name="family_of_missing" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{3E8672DD-263D-478A-8B47-C8B4F1F053EA}" name="survivor_of_detention" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{5D0C7157-6256-4C2F-A14D-630FFB99C9A4}" name="primary_torture" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{31FB07F7-9333-4DCE-BE04-3D419F21D2CA}" name="secondary_torture" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{E5AAE710-3A81-4393-99B7-746D7C6BC67E}" name="sexual_violation_a" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{9E7B54E6-101C-439E-B470-A93D49A68E69}" name="sexual_violation_p" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{9411EED7-2310-4056-A964-39A04B320CDE}" name="hrd" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{4BA7F5B9-7B34-4144-93F9-1440B4DACB3A}" name="journalist" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{BAEA4043-1C0A-4FC7-A42F-3CB441A7EA1E}" name="wov" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{F4E60821-DEA9-4708-835F-082D5E2CCCB3}" name="stgbv" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{42B7DFB1-7568-4EE3-B879-69536948FBA6}" name="lgbti" dataDxfId="126"/>
+    <tableColumn id="16" xr3:uid="{48B76606-A891-428A-841C-6440788D899E}" name="other" dataDxfId="125"/>
+    <tableColumn id="17" xr3:uid="{215228D0-8DFB-4065-B453-BDC8846B1FB4}" name="sex" dataDxfId="124"/>
+    <tableColumn id="18" xr3:uid="{B81440C1-BADA-46EF-B944-A26561C22CC7}" name="age" dataDxfId="123"/>
+    <tableColumn id="20" xr3:uid="{7BB2464A-355F-43D2-BDFD-ED163019D8BE}" name="ptc" dataDxfId="122"/>
+    <tableColumn id="22" xr3:uid="{272F2FF9-8D61-4320-9DD6-F1A139A78244}" name="pain_now" dataDxfId="121"/>
+    <tableColumn id="24" xr3:uid="{FF37E09C-7857-42F1-BADA-9ED0A63B5A19}" name="pain_last_week" dataDxfId="120"/>
+    <tableColumn id="25" xr3:uid="{46B161EE-0676-4C5E-A345-ED0455ACE386}" name="sleep_in_30m" dataDxfId="119"/>
+    <tableColumn id="26" xr3:uid="{59817D1A-91A8-4870-BC0A-0DB980BF726E}" name="discomfort_when_trying_to_sleep" dataDxfId="118"/>
+    <tableColumn id="27" xr3:uid="{298E4A07-287D-4FB8-8467-D682716C7F03}" name="sleep_through_night_ability" dataDxfId="117"/>
+    <tableColumn id="28" xr3:uid="{11919B0E-186E-4C6D-9D25-9388A1E59043}" name="sleep_quality" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C417531B-11ED-4185-9612-0E41FBEE1CA0}" name="Table11011" displayName="Table11011" ref="A1:V28" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
-  <autoFilter ref="A1:V28" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}">
-    <filterColumn colId="20">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C417531B-11ED-4185-9612-0E41FBEE1CA0}" name="Table11011" displayName="Table11011" ref="A1:V28" totalsRowShown="0" headerRowDxfId="115" headerRowBorderDxfId="114" tableBorderDxfId="113">
+  <autoFilter ref="A1:V28" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}"/>
   <tableColumns count="22">
-    <tableColumn id="21" xr3:uid="{5C8F69B5-878E-4F2A-A8D9-773A515BFA11}" name="#" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{05BB17E4-97F3-4B63-B391-A006D425E589}" name="as" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{2154682F-AB42-4A30-8C55-C9F3202FD371}" name="rid" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E35F3F58-306D-4D92-9BFD-DCD58F539861}" name="fcid" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{E6BBD7DA-C9DB-4E4D-887A-E06DEA4873CA}" name="ptfua_d" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9F08FC5D-73FC-4A32-A01D-DA0E254EE815}" name="family_of_missing" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{08CCEC61-8697-47FF-A899-F94CB3CAB71B}" name="survivor_of_detention" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{7101AABF-781F-4072-81D1-20D226F25E65}" name="primary_torture" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D8415192-7BBE-44EA-BAC2-0E3EED7EFB20}" name="secondary_torture" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{D067E230-397C-4FA7-A71D-E77CC93DDE8C}" name="sexual_violation_a" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{C7A521BB-6894-4D34-B71F-E60B3F55914A}" name="sexual_violation_p" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7FD16404-B8D4-4F66-A01B-F09776E2A992}" name="hrd" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{76B71312-C1E7-4DC0-AD7C-26514BCBF53A}" name="journalist" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{04746115-E7EB-4000-A605-A0A65513D2E2}" name="wov" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{732F384F-1AB2-41FF-A267-173B0220A1EA}" name="stgbv" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{09870EF4-247F-4A9F-93F5-EC77207C0E99}" name="lgbti" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{56BE7F8E-F0EC-40E1-B471-4C73D591CE05}" name="other" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{1B5845F8-F07C-4665-8CD1-88F822DA77A5}" name="sex" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{F301F910-1642-4261-AD5C-D2B74F0226F5}" name="age" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{3D4E31BF-8B91-4AD7-A3E3-2D3BBE9C0C41}" name="ptc" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{46E1C467-83F0-4C6B-B931-E713590F9EE2}" name="DailyLifeBladderControlIssue" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{683F524E-DFC5-4681-94B5-DBD0602C8ADE}" name="HealthImpactOnSexLife" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{5C8F69B5-878E-4F2A-A8D9-773A515BFA11}" name="#" dataDxfId="112"/>
+    <tableColumn id="23" xr3:uid="{05BB17E4-97F3-4B63-B391-A006D425E589}" name="as" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{2154682F-AB42-4A30-8C55-C9F3202FD371}" name="rid" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{E35F3F58-306D-4D92-9BFD-DCD58F539861}" name="fcid" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{E6BBD7DA-C9DB-4E4D-887A-E06DEA4873CA}" name="ptfua_d" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{9F08FC5D-73FC-4A32-A01D-DA0E254EE815}" name="family_of_missing" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{08CCEC61-8697-47FF-A899-F94CB3CAB71B}" name="survivor_of_detention" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{7101AABF-781F-4072-81D1-20D226F25E65}" name="primary_torture" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{D8415192-7BBE-44EA-BAC2-0E3EED7EFB20}" name="secondary_torture" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{D067E230-397C-4FA7-A71D-E77CC93DDE8C}" name="sexual_violation_a" dataDxfId="103"/>
+    <tableColumn id="10" xr3:uid="{C7A521BB-6894-4D34-B71F-E60B3F55914A}" name="sexual_violation_p" dataDxfId="102"/>
+    <tableColumn id="11" xr3:uid="{7FD16404-B8D4-4F66-A01B-F09776E2A992}" name="hrd" dataDxfId="101"/>
+    <tableColumn id="12" xr3:uid="{76B71312-C1E7-4DC0-AD7C-26514BCBF53A}" name="journalist" dataDxfId="100"/>
+    <tableColumn id="13" xr3:uid="{04746115-E7EB-4000-A605-A0A65513D2E2}" name="wov" dataDxfId="99"/>
+    <tableColumn id="14" xr3:uid="{732F384F-1AB2-41FF-A267-173B0220A1EA}" name="stgbv" dataDxfId="98"/>
+    <tableColumn id="15" xr3:uid="{09870EF4-247F-4A9F-93F5-EC77207C0E99}" name="lgbti" dataDxfId="97"/>
+    <tableColumn id="16" xr3:uid="{56BE7F8E-F0EC-40E1-B471-4C73D591CE05}" name="other" dataDxfId="96"/>
+    <tableColumn id="17" xr3:uid="{1B5845F8-F07C-4665-8CD1-88F822DA77A5}" name="sex" dataDxfId="95"/>
+    <tableColumn id="18" xr3:uid="{F301F910-1642-4261-AD5C-D2B74F0226F5}" name="age" dataDxfId="94"/>
+    <tableColumn id="20" xr3:uid="{3D4E31BF-8B91-4AD7-A3E3-2D3BBE9C0C41}" name="ptc" dataDxfId="93"/>
+    <tableColumn id="22" xr3:uid="{46E1C467-83F0-4C6B-B931-E713590F9EE2}" name="DailyLifeBladderControlIssue" dataDxfId="92"/>
+    <tableColumn id="24" xr3:uid="{683F524E-DFC5-4681-94B5-DBD0602C8ADE}" name="HealthImpactOnSexLife" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1B860B9-C5FA-49CD-A01A-7D1E6D1F305F}" name="Table110113" displayName="Table110113" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="79" tableBorderDxfId="80">
-  <autoFilter ref="A1:AB27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}">
-    <filterColumn colId="20">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1B860B9-C5FA-49CD-A01A-7D1E6D1F305F}" name="Table110113" displayName="Table110113" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
+  <autoFilter ref="A1:AB27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}"/>
   <tableColumns count="28">
-    <tableColumn id="21" xr3:uid="{A3D299F8-8423-405F-BADD-93DB54E3D26B}" name="#" dataDxfId="78"/>
-    <tableColumn id="23" xr3:uid="{9CEAC6A8-6FDD-479B-B3DE-E4920047FD53}" name="as" dataDxfId="77"/>
-    <tableColumn id="1" xr3:uid="{6E0CE11D-7223-4288-B814-5D8C4375CBAD}" name="rid" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{BAF4DA44-021B-47B5-A690-603684D97205}" name="fcid" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{D16C7EF7-733E-4C8A-92B8-905247386FB1}" name="ptfua_d" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{240FCF80-8E47-441B-BC7A-EFB91791E88B}" name="family_of_missing" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{CA27D654-FEEE-4250-AF27-077311F84511}" name="survivor_of_detention" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{81A51BF6-554A-4D7E-9200-54446DEEFA5F}" name="primary_torture" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{362B17FE-4C21-4843-9951-E131AA935D35}" name="secondary_torture" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{44803365-FFE6-4325-843F-DC6B2C8481FE}" name="sexual_violation_a" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{801A9CC1-6A14-4E6C-9FBD-E5DC1E6B0FFF}" name="sexual_violation_p" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{744D735A-12A7-460F-B2AA-5E1F5350B8F4}" name="hrd" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{C12BC9AF-4649-4ED0-B74D-8D7C065823D2}" name="journalist" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{A1472A9B-61FD-4646-AEDD-502DF0E84C6D}" name="wov" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{64C2FDD3-75AF-4EA1-81CD-DF67E65BB637}" name="stgbv" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{682EC478-7661-48A1-8B9A-F77F87FE0C18}" name="lgbti" dataDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{726A9892-9102-4CBD-A65D-B7309E05A65E}" name="other" dataDxfId="62"/>
-    <tableColumn id="17" xr3:uid="{98BE0231-AF69-445B-BAB8-D8F509E792E3}" name="sex" dataDxfId="61"/>
-    <tableColumn id="18" xr3:uid="{26ABEF59-925E-4820-9FBD-11184BFB551D}" name="age" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{62A77954-C89B-4C09-9012-9FDEDA42125C}" name="ptc" dataDxfId="59"/>
-    <tableColumn id="22" xr3:uid="{A247E211-75DF-47D9-AF56-0206E45DC805}" name="AbilityToVisitFriendsRelatives" dataDxfId="58"/>
-    <tableColumn id="24" xr3:uid="{0B59F9AA-8BD2-4A67-A9B7-7BE581FB0571}" name="ComfortInDiscussingHealthWithOthers" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{42217A0E-11CC-436F-A32E-DDE853401D91}" name="PositiveHomeRelationships" dataDxfId="56"/>
-    <tableColumn id="19" xr3:uid="{A28BB7BD-3D63-4CFB-AB31-E88CD5AA1355}" name="HarmonyWithFamilyFriends" dataDxfId="55"/>
-    <tableColumn id="25" xr3:uid="{D0AE6EE2-45F4-451B-B3B9-B18D6954EADB}" name="ParticipationInCommunityEvents" dataDxfId="54"/>
-    <tableColumn id="26" xr3:uid="{A553B9A8-2810-462B-AC92-4D3198E6F6AD}" name="ComfortDiscussingLifeStoryWithOthers" dataDxfId="53"/>
-    <tableColumn id="27" xr3:uid="{BC3341FA-D86A-492C-BCAB-F89921C90F5E}" name="AbilityToWorkOrJobSearch" dataDxfId="52"/>
-    <tableColumn id="28" xr3:uid="{742C84F0-DE96-42B4-943A-FEDF2E907C85}" name="SatisfactionWithSocialRelationsActivitie" dataDxfId="51"/>
+    <tableColumn id="21" xr3:uid="{A3D299F8-8423-405F-BADD-93DB54E3D26B}" name="#" dataDxfId="87"/>
+    <tableColumn id="23" xr3:uid="{9CEAC6A8-6FDD-479B-B3DE-E4920047FD53}" name="as" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{6E0CE11D-7223-4288-B814-5D8C4375CBAD}" name="rid" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{BAF4DA44-021B-47B5-A690-603684D97205}" name="fcid" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{D16C7EF7-733E-4C8A-92B8-905247386FB1}" name="ptfua_d" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{240FCF80-8E47-441B-BC7A-EFB91791E88B}" name="family_of_missing" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{CA27D654-FEEE-4250-AF27-077311F84511}" name="survivor_of_detention" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{81A51BF6-554A-4D7E-9200-54446DEEFA5F}" name="primary_torture" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{362B17FE-4C21-4843-9951-E131AA935D35}" name="secondary_torture" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{44803365-FFE6-4325-843F-DC6B2C8481FE}" name="sexual_violation_a" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{801A9CC1-6A14-4E6C-9FBD-E5DC1E6B0FFF}" name="sexual_violation_p" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{744D735A-12A7-460F-B2AA-5E1F5350B8F4}" name="hrd" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{C12BC9AF-4649-4ED0-B74D-8D7C065823D2}" name="journalist" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{A1472A9B-61FD-4646-AEDD-502DF0E84C6D}" name="wov" dataDxfId="74"/>
+    <tableColumn id="14" xr3:uid="{64C2FDD3-75AF-4EA1-81CD-DF67E65BB637}" name="stgbv" dataDxfId="73"/>
+    <tableColumn id="15" xr3:uid="{682EC478-7661-48A1-8B9A-F77F87FE0C18}" name="lgbti" dataDxfId="72"/>
+    <tableColumn id="16" xr3:uid="{726A9892-9102-4CBD-A65D-B7309E05A65E}" name="other" dataDxfId="71"/>
+    <tableColumn id="17" xr3:uid="{98BE0231-AF69-445B-BAB8-D8F509E792E3}" name="sex" dataDxfId="70"/>
+    <tableColumn id="18" xr3:uid="{26ABEF59-925E-4820-9FBD-11184BFB551D}" name="age" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{62A77954-C89B-4C09-9012-9FDEDA42125C}" name="ptc" dataDxfId="68"/>
+    <tableColumn id="22" xr3:uid="{A247E211-75DF-47D9-AF56-0206E45DC805}" name="AbilityToVisitFriendsRelatives" dataDxfId="67"/>
+    <tableColumn id="24" xr3:uid="{0B59F9AA-8BD2-4A67-A9B7-7BE581FB0571}" name="ComfortInDiscussingHealthWithOthers" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{42217A0E-11CC-436F-A32E-DDE853401D91}" name="PositiveHomeRelationships" dataDxfId="65"/>
+    <tableColumn id="19" xr3:uid="{A28BB7BD-3D63-4CFB-AB31-E88CD5AA1355}" name="HarmonyWithFamilyFriends" dataDxfId="64"/>
+    <tableColumn id="25" xr3:uid="{D0AE6EE2-45F4-451B-B3B9-B18D6954EADB}" name="ParticipationInCommunityEvents" dataDxfId="63"/>
+    <tableColumn id="26" xr3:uid="{A553B9A8-2810-462B-AC92-4D3198E6F6AD}" name="ComfortDiscussingLifeStoryWithOthers" dataDxfId="62"/>
+    <tableColumn id="27" xr3:uid="{BC3341FA-D86A-492C-BCAB-F89921C90F5E}" name="AbilityToWorkOrJobSearch" dataDxfId="61"/>
+    <tableColumn id="28" xr3:uid="{742C84F0-DE96-42B4-943A-FEDF2E907C85}" name="SatisfactionWithSocialRelationsActivitie" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2025,44 +2006,40 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{22939589-3795-42F8-89EE-8D87B8286D50}" name="Table1101135" displayName="Table1101135" ref="A1:AE27" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="114" tableBorderDxfId="115">
-  <autoFilter ref="A1:AE27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}">
-    <filterColumn colId="20">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{22939589-3795-42F8-89EE-8D87B8286D50}" name="Table1101135" displayName="Table1101135" ref="A1:AE27" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57">
+  <autoFilter ref="A1:AE27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}"/>
   <tableColumns count="31">
-    <tableColumn id="21" xr3:uid="{3524B735-9E20-4469-9669-3AC50754415D}" name="#" dataDxfId="113"/>
-    <tableColumn id="23" xr3:uid="{95C60E8F-77A9-4E91-B3A4-21E301562B4B}" name="as" dataDxfId="82"/>
-    <tableColumn id="1" xr3:uid="{387115FF-D3F5-4A62-ACBE-4B00BD152081}" name="rid" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{8471F054-6F59-4588-8ED6-535475144841}" name="fcid" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{EA77B490-E07C-42FF-9C73-A1313BAA2643}" name="date" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{066B7B78-EBB8-4A3F-83F1-3DC615B69F1C}" name="family_of_missing" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{FE9A0DF4-C239-4E58-AF5F-A1DEC407AD77}" name="survivor_of_detention" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{DAD34274-249C-4771-B771-A8FCD5E1C0E3}" name="primary_torture" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{9A48B4F9-83BC-4BE9-A0C2-2EE4FFAAEB9D}" name="secondary_torture" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{183AEA52-1524-4CC3-A88D-8F21A71AAAFA}" name="sexual_violation_a" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{1E8855CE-AFD2-473E-BFF3-022464248790}" name="sexual_violation_p" dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{17D2E26D-C25F-4813-8F61-686A994E12A7}" name="hrd" dataDxfId="103"/>
-    <tableColumn id="12" xr3:uid="{4B3476B7-02D6-4F88-80E7-4D7585C9C90B}" name="journalist" dataDxfId="102"/>
-    <tableColumn id="13" xr3:uid="{73EBCDCD-3FDF-4423-A61D-D80410DCC453}" name="wov" dataDxfId="101"/>
-    <tableColumn id="14" xr3:uid="{E7864AFE-2A22-4978-9BB9-A7325B99C858}" name="stgbv" dataDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{331994B1-45D3-48FD-842A-7E4BABE2BC78}" name="lgbti" dataDxfId="99"/>
-    <tableColumn id="16" xr3:uid="{EF525A85-7BBA-4D0B-84A8-D7826DF9A6B5}" name="other" dataDxfId="98"/>
-    <tableColumn id="17" xr3:uid="{52E3B68B-E317-42B3-894F-5978B4925FAA}" name="sex" dataDxfId="97"/>
-    <tableColumn id="18" xr3:uid="{B0546572-CBCF-423B-AFFA-70F60065105D}" name="age" dataDxfId="96"/>
-    <tableColumn id="20" xr3:uid="{6610A37B-8DCD-41C0-B268-BBA640855142}" name="ptc" dataDxfId="95"/>
-    <tableColumn id="22" xr3:uid="{A84890D4-48AD-4446-9977-331F644C69FB}" name="KnowledgeOfTechniquesForDiscomfortPain" dataDxfId="94"/>
-    <tableColumn id="24" xr3:uid="{3945B162-6FB8-4CFF-99A5-4118A72D89B5}" name="PainNotPreventingNecessaryActions" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{64FAD828-3E92-4897-8D0A-BAF44C21BD66}" name="SatisfiedWithHealth" dataDxfId="92"/>
-    <tableColumn id="19" xr3:uid="{B1452823-8C02-4086-B058-4079466F5356}" name="ConfidenceHandlingHealthForDailyLifePerformance" dataDxfId="91"/>
-    <tableColumn id="25" xr3:uid="{C03BE6D9-B184-4D9D-8B5F-275B020AB033}" name="ActivitiesForPhysicalImprovement" dataDxfId="90"/>
-    <tableColumn id="26" xr3:uid="{C53D8C4F-7712-4426-8588-20CC65F6FF96}" name="SatisfactionWithDailyActivitiesAbility" dataDxfId="89"/>
-    <tableColumn id="27" xr3:uid="{0455558C-B2AE-4969-87A9-8CE3CDE11AE3}" name="ParticipationInHealthImprovementGoals" dataDxfId="88"/>
-    <tableColumn id="28" xr3:uid="{3988D47D-9855-4A64-8D13-5BEED76DA22B}" name="LinkBetweenPhysicalFunctionPsychologicalState" dataDxfId="87"/>
-    <tableColumn id="33" xr3:uid="{B9165570-5EBE-4805-956C-DDCDA893647D}" name="WillingnessToExerciseDespitePain" dataDxfId="86"/>
-    <tableColumn id="34" xr3:uid="{CC0B7919-17B7-4B89-9E5F-E17C7FB2F8F9}" name="LifeQualitySatisfaction" dataDxfId="85"/>
-    <tableColumn id="35" xr3:uid="{C3D6B1E8-C82B-413A-BA42-B5B4C43020B6}" name="BeliefInSituationImprovement" dataDxfId="84"/>
+    <tableColumn id="21" xr3:uid="{3524B735-9E20-4469-9669-3AC50754415D}" name="#" dataDxfId="56"/>
+    <tableColumn id="23" xr3:uid="{95C60E8F-77A9-4E91-B3A4-21E301562B4B}" name="as" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{387115FF-D3F5-4A62-ACBE-4B00BD152081}" name="rid" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{8471F054-6F59-4588-8ED6-535475144841}" name="fcid" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{EA77B490-E07C-42FF-9C73-A1313BAA2643}" name="date" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{066B7B78-EBB8-4A3F-83F1-3DC615B69F1C}" name="family_of_missing" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{FE9A0DF4-C239-4E58-AF5F-A1DEC407AD77}" name="survivor_of_detention" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{DAD34274-249C-4771-B771-A8FCD5E1C0E3}" name="primary_torture" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{9A48B4F9-83BC-4BE9-A0C2-2EE4FFAAEB9D}" name="secondary_torture" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{183AEA52-1524-4CC3-A88D-8F21A71AAAFA}" name="sexual_violation_a" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{1E8855CE-AFD2-473E-BFF3-022464248790}" name="sexual_violation_p" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{17D2E26D-C25F-4813-8F61-686A994E12A7}" name="hrd" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{4B3476B7-02D6-4F88-80E7-4D7585C9C90B}" name="journalist" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{73EBCDCD-3FDF-4423-A61D-D80410DCC453}" name="wov" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{E7864AFE-2A22-4978-9BB9-A7325B99C858}" name="stgbv" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{331994B1-45D3-48FD-842A-7E4BABE2BC78}" name="lgbti" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{EF525A85-7BBA-4D0B-84A8-D7826DF9A6B5}" name="other" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{52E3B68B-E317-42B3-894F-5978B4925FAA}" name="sex" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{B0546572-CBCF-423B-AFFA-70F60065105D}" name="age" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{6610A37B-8DCD-41C0-B268-BBA640855142}" name="ptc" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{A84890D4-48AD-4446-9977-331F644C69FB}" name="KnowledgeOfTechniquesForDiscomfortPain" dataDxfId="36"/>
+    <tableColumn id="24" xr3:uid="{3945B162-6FB8-4CFF-99A5-4118A72D89B5}" name="PainNotPreventingNecessaryActions" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{64FAD828-3E92-4897-8D0A-BAF44C21BD66}" name="SatisfiedWithHealth" dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{B1452823-8C02-4086-B058-4079466F5356}" name="ConfidenceHandlingHealthForDailyLifePerformance" dataDxfId="33"/>
+    <tableColumn id="25" xr3:uid="{C03BE6D9-B184-4D9D-8B5F-275B020AB033}" name="ActivitiesForPhysicalImprovement" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{C53D8C4F-7712-4426-8588-20CC65F6FF96}" name="SatisfactionWithDailyActivitiesAbility" dataDxfId="31"/>
+    <tableColumn id="27" xr3:uid="{0455558C-B2AE-4969-87A9-8CE3CDE11AE3}" name="ParticipationInHealthImprovementGoals" dataDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{3988D47D-9855-4A64-8D13-5BEED76DA22B}" name="LinkBetweenPhysicalFunctionPsychologicalState" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{B9165570-5EBE-4805-956C-DDCDA893647D}" name="WillingnessToExerciseDespitePain" dataDxfId="28"/>
+    <tableColumn id="34" xr3:uid="{CC0B7919-17B7-4B89-9E5F-E17C7FB2F8F9}" name="LifeQualitySatisfaction" dataDxfId="27"/>
+    <tableColumn id="35" xr3:uid="{C3D6B1E8-C82B-413A-BA42-B5B4C43020B6}" name="BeliefInSituationImprovement" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2080,36 +2057,32 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{119CFE81-E374-4604-AC15-D4C3D766BB41}" name="Table110117" displayName="Table110117" ref="A1:W27" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49">
-  <autoFilter ref="A1:W27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}">
-    <filterColumn colId="20">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{119CFE81-E374-4604-AC15-D4C3D766BB41}" name="Table110117" displayName="Table110117" ref="A1:W27" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:W27" xr:uid="{60E71A93-8363-4A4C-891E-9582411DF119}"/>
   <tableColumns count="23">
-    <tableColumn id="21" xr3:uid="{6EF36F29-D248-433C-9C13-E9EC38F95708}" name="#" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{B5BDB88D-2FCD-4BA3-B637-1BBC703261BB}" name="as" dataDxfId="46"/>
-    <tableColumn id="1" xr3:uid="{6254F92D-4497-4B3C-9A44-0A006F2E80C8}" name="rid" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{434041E6-8399-437F-B7ED-D3C754A4BFAF}" name="fcid" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{9D75BF67-2800-4EBB-B705-112B392A8131}" name="ptfua_d" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{1972A404-C78D-4156-B0E2-927FDC214943}" name="family_of_missing" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{EFBFB24C-3973-4350-AD74-A35239FCB594}" name="survivor_of_detention" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{1CCB8194-8C47-4EA7-B6A7-127518ECCF03}" name="primary_torture" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{039B8344-180C-4B31-AB47-C13E3E694DDE}" name="secondary_torture" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{6F91AA3E-A2E3-489F-AA21-4C7185277A2B}" name="sexual_violation_a" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{8FB44E37-DFC6-4BCD-B365-68C19346417F}" name="sexual_violation_p" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{ECC10650-6681-439B-B378-7065B3E756E0}" name="hrd" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{F68F6773-D1CA-42CA-AE4B-98081BBC12E3}" name="journalist" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{6B2F626E-C057-4244-833D-B92591F71DEA}" name="wov" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{294629B9-494A-468F-AACF-00B56CACFFE1}" name="stgbv" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{CAB060B3-1D8F-46A0-A9A5-3AC7712B6B78}" name="lgbti" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{7F7414CF-D91D-4E5E-AF52-DBD7FA9066FB}" name="other" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{72D2818F-0B8F-4689-B156-1A98D8B4DC01}" name="sex" dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{FBCD4831-FF8B-4C32-A9B1-A852B8F42367}" name="age" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{2BC920FD-247C-4AFE-841E-6E8B097C6C36}" name="ptc" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{773BD90F-2E69-4C51-8956-40E121456F53}" name="BodyAwarenessInEnvironment" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{0A3B94EC-A1D5-4F0B-AA63-A633C07AFFE2}" name="AbilityToLocatePhysicalSymptoms" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4A990CC8-9FBB-469E-AA0D-D18C92EA03DC}" name="SmoothCoordinatedMovementsAbility" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{6EF36F29-D248-433C-9C13-E9EC38F95708}" name="#" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{B5BDB88D-2FCD-4BA3-B637-1BBC703261BB}" name="as" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{6254F92D-4497-4B3C-9A44-0A006F2E80C8}" name="rid" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{434041E6-8399-437F-B7ED-D3C754A4BFAF}" name="fcid" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{9D75BF67-2800-4EBB-B705-112B392A8131}" name="ptfua_d" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1972A404-C78D-4156-B0E2-927FDC214943}" name="family_of_missing" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{EFBFB24C-3973-4350-AD74-A35239FCB594}" name="survivor_of_detention" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{1CCB8194-8C47-4EA7-B6A7-127518ECCF03}" name="primary_torture" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{039B8344-180C-4B31-AB47-C13E3E694DDE}" name="secondary_torture" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{6F91AA3E-A2E3-489F-AA21-4C7185277A2B}" name="sexual_violation_a" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{8FB44E37-DFC6-4BCD-B365-68C19346417F}" name="sexual_violation_p" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{ECC10650-6681-439B-B378-7065B3E756E0}" name="hrd" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{F68F6773-D1CA-42CA-AE4B-98081BBC12E3}" name="journalist" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{6B2F626E-C057-4244-833D-B92591F71DEA}" name="wov" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{294629B9-494A-468F-AACF-00B56CACFFE1}" name="stgbv" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{CAB060B3-1D8F-46A0-A9A5-3AC7712B6B78}" name="lgbti" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{7F7414CF-D91D-4E5E-AF52-DBD7FA9066FB}" name="other" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{72D2818F-0B8F-4689-B156-1A98D8B4DC01}" name="sex" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{FBCD4831-FF8B-4C32-A9B1-A852B8F42367}" name="age" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{2BC920FD-247C-4AFE-841E-6E8B097C6C36}" name="ptc" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{773BD90F-2E69-4C51-8956-40E121456F53}" name="BodyAwarenessInEnvironment" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{0A3B94EC-A1D5-4F0B-AA63-A633C07AFFE2}" name="AbilityToLocatePhysicalSymptoms" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4A990CC8-9FBB-469E-AA0D-D18C92EA03DC}" name="SmoothCoordinatedMovementsAbility" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2402,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S29" activeCellId="7" sqref="T22 S26 E26 E22 E29 T26 T28 S29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,11 +2511,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2551,7 +2524,7 @@
       <c r="D2" s="6">
         <v>8110020080</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <v>44635</v>
       </c>
       <c r="F2" s="7"/>
@@ -2612,11 +2585,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2702,11 +2675,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2776,11 +2749,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2866,11 +2839,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2940,11 +2913,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3030,11 +3003,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3104,11 +3077,11 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3194,11 +3167,11 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3268,11 +3241,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3358,11 +3331,11 @@
         <v>51.02</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3432,11 +3405,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3522,11 +3495,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6"/>
@@ -3594,11 +3567,11 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3684,11 +3657,11 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3758,11 +3731,11 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3848,11 +3821,11 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6"/>
@@ -3920,11 +3893,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4010,11 +3983,11 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6"/>
@@ -4082,11 +4055,11 @@
         <v>76.92</v>
       </c>
     </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -4176,14 +4149,18 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="6">
         <v>8110050085</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="16">
+        <v>44841</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4199,26 +4176,54 @@
       <c r="R22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
+      <c r="S22" s="17">
+        <v>37</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
+        <v>15.3</v>
+      </c>
+      <c r="X22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>93.5</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>89.7</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>51.2</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -4264,25 +4269,51 @@
       <c r="S23" s="6">
         <v>37</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-    </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>27.84</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>20.61</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>17.52</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>17.52</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -4352,11 +4383,11 @@
         <v>57.96</v>
       </c>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4446,14 +4477,16 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>8110050087</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <v>44844</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4469,26 +4502,54 @@
       <c r="R26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
+      <c r="S26" s="6">
+        <v>37</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U26" s="6">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="X26" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>89</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>57.6</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>83.3</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>89</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>89</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -4534,7 +4595,9 @@
       <c r="S27" s="6">
         <v>37</v>
       </c>
-      <c r="T27" s="6"/>
+      <c r="T27" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -4579,7 +4642,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S29" activeCellId="7" sqref="T22 S26 E26 E22 E29 T26 T28 S29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,11 +4754,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="7"/>
@@ -4739,11 +4802,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4809,11 +4872,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6"/>
@@ -4857,11 +4920,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4927,11 +4990,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6"/>
@@ -4975,11 +5038,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -5045,11 +5108,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6"/>
@@ -5093,11 +5156,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -5163,11 +5226,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5217,11 +5280,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5289,11 +5352,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
@@ -5337,11 +5400,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5407,11 +5470,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6"/>
@@ -5455,11 +5518,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -5525,11 +5588,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5575,11 +5638,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -5645,11 +5708,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6"/>
@@ -5693,11 +5756,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -5767,7 +5830,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6"/>
@@ -5815,7 +5878,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -5885,7 +5948,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="6"/>
@@ -5910,18 +5973,30 @@
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
+      <c r="U22" s="6">
+        <v>5</v>
+      </c>
+      <c r="V22" s="6">
+        <v>8</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -5968,18 +6043,30 @@
         <v>37</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>10</v>
+      </c>
+      <c r="X23" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6"/>
@@ -6023,11 +6110,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -6097,7 +6184,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="6"/>
@@ -6122,18 +6209,30 @@
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
+      <c r="U26" s="6">
+        <v>9</v>
+      </c>
+      <c r="V26" s="6">
+        <v>9</v>
+      </c>
+      <c r="W26" s="6">
+        <v>3</v>
+      </c>
+      <c r="X26" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -6180,12 +6279,24 @@
         <v>37</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
+      <c r="U27" s="6">
+        <v>4</v>
+      </c>
+      <c r="V27" s="6">
+        <v>10</v>
+      </c>
+      <c r="W27" s="6">
+        <v>10</v>
+      </c>
+      <c r="X27" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -6276,8 +6387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23290B-8B71-4AB2-99A4-196E70BDCD8A}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,11 +6484,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="7"/>
@@ -6409,11 +6520,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6467,11 +6578,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6"/>
@@ -6503,11 +6614,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6561,11 +6672,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6"/>
@@ -6597,11 +6708,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -6655,11 +6766,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6"/>
@@ -6691,11 +6802,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -6749,11 +6860,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6791,11 +6902,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6851,11 +6962,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
@@ -6887,11 +6998,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -6945,11 +7056,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6"/>
@@ -6981,11 +7092,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -7039,11 +7150,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6"/>
@@ -7075,11 +7186,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -7135,11 +7246,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6"/>
@@ -7171,11 +7282,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7233,7 +7344,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6"/>
@@ -7269,7 +7380,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -7327,7 +7438,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="6"/>
@@ -7352,14 +7463,18 @@
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -7406,14 +7521,18 @@
         <v>37</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6"/>
@@ -7445,11 +7564,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -7507,7 +7626,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="6"/>
@@ -7532,14 +7651,18 @@
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="U26" s="6">
+        <v>1</v>
+      </c>
+      <c r="V26" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -7586,32 +7709,36 @@
         <v>37</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="U27" s="6">
+        <v>1</v>
+      </c>
+      <c r="V27" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E29"/>
@@ -7695,7 +7822,7 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7796,30 +7923,30 @@
       <c r="V1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="7"/>
@@ -7869,11 +7996,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -7926,30 +8053,30 @@
       <c r="V3" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="11">
-        <v>3</v>
-      </c>
-      <c r="X3" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="11">
+      <c r="W3" s="6">
+        <v>3</v>
+      </c>
+      <c r="X3" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="6">
         <v>1</v>
       </c>
-      <c r="AA3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6"/>
@@ -7980,30 +8107,30 @@
       <c r="V4" s="6">
         <v>2</v>
       </c>
-      <c r="W4" s="11">
-        <v>3</v>
-      </c>
-      <c r="X4" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="6">
+        <v>3</v>
+      </c>
+      <c r="X4" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8056,30 +8183,30 @@
       <c r="V5" s="6">
         <v>1</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="6">
         <v>1</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="6">
         <v>1</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="6">
         <v>1</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="6">
         <v>1</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="6">
         <v>1</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6"/>
@@ -8110,30 +8237,30 @@
       <c r="V6" s="6">
         <v>3</v>
       </c>
-      <c r="W6" s="11">
-        <v>3</v>
-      </c>
-      <c r="X6" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="6">
+        <v>3</v>
+      </c>
+      <c r="X6" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -8186,30 +8313,30 @@
       <c r="V7" s="6">
         <v>1</v>
       </c>
-      <c r="W7" s="11">
-        <v>3</v>
-      </c>
-      <c r="X7" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="11">
+      <c r="W7" s="6">
+        <v>3</v>
+      </c>
+      <c r="X7" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6"/>
@@ -8240,28 +8367,28 @@
       <c r="V8" s="6">
         <v>1</v>
       </c>
-      <c r="W8" s="11">
-        <v>2</v>
-      </c>
-      <c r="X8" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="6">
+        <v>2</v>
+      </c>
+      <c r="X8" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -8314,30 +8441,30 @@
       <c r="V9" s="6">
         <v>1</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="6">
         <v>1</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="6">
         <v>1</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="6">
         <v>1</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="6">
         <v>1</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="6">
         <v>1</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -8374,30 +8501,30 @@
       <c r="V10" s="6">
         <v>2</v>
       </c>
-      <c r="W10" s="11">
-        <v>3</v>
-      </c>
-      <c r="X10" s="11">
+      <c r="W10" s="6">
+        <v>3</v>
+      </c>
+      <c r="X10" s="6">
         <v>1</v>
       </c>
-      <c r="Y10" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="11">
+      <c r="Y10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="6">
         <v>-1</v>
       </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8452,30 +8579,30 @@
       <c r="V11" s="6">
         <v>2</v>
       </c>
-      <c r="W11" s="11">
-        <v>3</v>
-      </c>
-      <c r="X11" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="11">
+      <c r="W11" s="6">
+        <v>3</v>
+      </c>
+      <c r="X11" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="6">
         <v>1</v>
       </c>
-      <c r="AA11" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="11">
+      <c r="AA11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
@@ -8506,30 +8633,30 @@
       <c r="V12" s="6">
         <v>2</v>
       </c>
-      <c r="W12" s="11">
-        <v>3</v>
-      </c>
-      <c r="X12" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="11">
+      <c r="W12" s="6">
+        <v>3</v>
+      </c>
+      <c r="X12" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="6">
         <v>-1</v>
       </c>
-      <c r="Z12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -8582,30 +8709,30 @@
       <c r="V13" s="6">
         <v>3</v>
       </c>
-      <c r="W13" s="11">
-        <v>2</v>
-      </c>
-      <c r="X13" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="6">
+        <v>2</v>
+      </c>
+      <c r="X13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6"/>
@@ -8636,30 +8763,30 @@
       <c r="V14" s="6">
         <v>3</v>
       </c>
-      <c r="W14" s="11">
-        <v>3</v>
-      </c>
-      <c r="X14" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="6">
+        <v>3</v>
+      </c>
+      <c r="X14" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -8712,30 +8839,30 @@
       <c r="V15" s="6">
         <v>3</v>
       </c>
-      <c r="W15" s="11">
-        <v>3</v>
-      </c>
-      <c r="X15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="11">
+      <c r="W15" s="6">
+        <v>3</v>
+      </c>
+      <c r="X15" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="6">
         <v>1</v>
       </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="11">
+      <c r="AA15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6"/>
@@ -8766,30 +8893,30 @@
       <c r="V16" s="6">
         <v>2</v>
       </c>
-      <c r="W16" s="11">
-        <v>2</v>
-      </c>
-      <c r="X16" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="6">
+        <v>2</v>
+      </c>
+      <c r="X16" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -8842,30 +8969,30 @@
       <c r="V17" s="6">
         <v>3</v>
       </c>
-      <c r="W17" s="11">
-        <v>2</v>
-      </c>
-      <c r="X17" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="11">
+      <c r="W17" s="6">
+        <v>2</v>
+      </c>
+      <c r="X17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="6">
         <v>1</v>
       </c>
-      <c r="Z17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="11">
+      <c r="Z17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="6">
         <v>1</v>
       </c>
-      <c r="AB17" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6"/>
@@ -8896,28 +9023,28 @@
       <c r="V18" s="6">
         <v>3</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="6">
         <v>1</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6">
         <v>1</v>
       </c>
-      <c r="Z18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -8970,22 +9097,22 @@
       <c r="V19" s="6">
         <v>3</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W19" s="6">
         <v>1</v>
       </c>
-      <c r="X19" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="11">
+      <c r="X19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8993,7 +9120,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6"/>
@@ -9024,22 +9151,22 @@
       <c r="V20" s="6">
         <v>0</v>
       </c>
-      <c r="W20" s="11">
-        <v>3</v>
-      </c>
-      <c r="X20" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="11">
+      <c r="W20" s="6">
+        <v>3</v>
+      </c>
+      <c r="X20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9047,7 +9174,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -9100,22 +9227,22 @@
       <c r="V21" s="6">
         <v>3</v>
       </c>
-      <c r="W21" s="11">
-        <v>3</v>
-      </c>
-      <c r="X21" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="11">
+      <c r="W21" s="6">
+        <v>3</v>
+      </c>
+      <c r="X21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9123,7 +9250,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="6"/>
@@ -9148,20 +9275,36 @@
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <v>3</v>
+      </c>
+      <c r="X22" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -9208,20 +9351,36 @@
         <v>37</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-    </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
+      <c r="V23" s="6">
+        <v>3</v>
+      </c>
+      <c r="W23" s="6">
+        <v>3</v>
+      </c>
+      <c r="X23" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6"/>
@@ -9252,30 +9411,30 @@
       <c r="V24" s="6">
         <v>3</v>
       </c>
-      <c r="W24" s="11">
-        <v>3</v>
-      </c>
-      <c r="X24" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y24" s="11">
+      <c r="W24" s="6">
+        <v>3</v>
+      </c>
+      <c r="X24" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="6">
         <v>1</v>
       </c>
-      <c r="Z24" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -9328,22 +9487,22 @@
       <c r="V25" s="6">
         <v>3</v>
       </c>
-      <c r="W25" s="11">
-        <v>3</v>
-      </c>
-      <c r="X25" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="11">
+      <c r="W25" s="6">
+        <v>3</v>
+      </c>
+      <c r="X25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9351,7 +9510,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="6"/>
@@ -9376,20 +9535,36 @@
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
+      <c r="U26" s="6">
+        <v>2</v>
+      </c>
+      <c r="V26" s="6">
+        <v>1</v>
+      </c>
+      <c r="W26" s="6">
+        <v>3</v>
+      </c>
+      <c r="X26" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -9436,14 +9611,30 @@
         <v>37</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
+      <c r="U27" s="6">
+        <v>1</v>
+      </c>
+      <c r="V27" s="6">
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <v>3</v>
+      </c>
+      <c r="X27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -9546,7 +9737,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9650,39 +9841,39 @@
       <c r="V1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="7"/>
@@ -9741,11 +9932,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -9798,39 +9989,39 @@
       <c r="V3" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="6">
         <v>1</v>
       </c>
-      <c r="X3" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="11">
+      <c r="X3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6">
         <v>1</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="6">
         <v>1</v>
       </c>
-      <c r="AA3" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="11">
+      <c r="AA3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="6">
         <v>1</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="6">
         <v>1</v>
       </c>
-      <c r="AE3" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6"/>
@@ -9861,39 +10052,39 @@
       <c r="V4" s="6">
         <v>2</v>
       </c>
-      <c r="W4" s="11">
-        <v>2</v>
-      </c>
-      <c r="X4" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="6">
+        <v>2</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9946,39 +10137,39 @@
       <c r="V5" s="6">
         <v>2</v>
       </c>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="11">
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
         <v>1</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="6">
         <v>1</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="6">
         <v>1</v>
       </c>
-      <c r="AA5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AA5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="6">
         <v>1</v>
       </c>
-      <c r="AE5" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6"/>
@@ -10009,39 +10200,39 @@
       <c r="V6" s="6">
         <v>1</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="6">
         <v>1</v>
       </c>
-      <c r="X6" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -10094,39 +10285,39 @@
       <c r="V7" s="6">
         <v>3</v>
       </c>
-      <c r="W7" s="11">
-        <v>3</v>
-      </c>
-      <c r="X7" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="6">
+        <v>3</v>
+      </c>
+      <c r="X7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6"/>
@@ -10157,39 +10348,39 @@
       <c r="V8" s="6">
         <v>2</v>
       </c>
-      <c r="W8" s="11">
-        <v>2</v>
-      </c>
-      <c r="X8" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="6">
+        <v>2</v>
+      </c>
+      <c r="X8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -10242,39 +10433,39 @@
       <c r="V9" s="6">
         <v>0</v>
       </c>
-      <c r="W9" s="11">
-        <v>2</v>
-      </c>
-      <c r="X9" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="11">
+      <c r="W9" s="6">
+        <v>2</v>
+      </c>
+      <c r="X9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -10311,39 +10502,39 @@
       <c r="V10" s="6">
         <v>2</v>
       </c>
-      <c r="W10" s="11">
-        <v>2</v>
-      </c>
-      <c r="X10" s="11">
+      <c r="W10" s="6">
+        <v>2</v>
+      </c>
+      <c r="X10" s="6">
         <v>1</v>
       </c>
-      <c r="Y10" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="11">
+      <c r="Y10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="6">
         <v>1</v>
       </c>
-      <c r="AA10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="11">
+      <c r="AA10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="6">
         <v>1</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="6">
         <v>1</v>
       </c>
-      <c r="AE10" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -10398,39 +10589,39 @@
       <c r="V11" s="6">
         <v>2</v>
       </c>
-      <c r="W11" s="11">
-        <v>2</v>
-      </c>
-      <c r="X11" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="6">
+        <v>2</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
@@ -10461,31 +10652,31 @@
       <c r="V12" s="6">
         <v>1</v>
       </c>
-      <c r="W12" s="11">
-        <v>2</v>
-      </c>
-      <c r="X12" s="11">
+      <c r="W12" s="6">
+        <v>2</v>
+      </c>
+      <c r="X12" s="6">
         <v>1</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="6">
         <v>1</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="6">
         <v>1</v>
       </c>
-      <c r="AA12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="11">
+      <c r="AA12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="6">
         <v>1</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="6">
         <v>1</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10493,7 +10684,7 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -10544,39 +10735,39 @@
       <c r="V13" s="6">
         <v>0</v>
       </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="11">
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="6">
         <v>1</v>
       </c>
-      <c r="Z13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="11">
+      <c r="Z13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="6">
         <v>1</v>
       </c>
-      <c r="AD13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="11">
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6"/>
@@ -10607,39 +10798,39 @@
       <c r="V14" s="6">
         <v>1</v>
       </c>
-      <c r="W14" s="11">
-        <v>2</v>
-      </c>
-      <c r="X14" s="11">
+      <c r="W14" s="6">
+        <v>2</v>
+      </c>
+      <c r="X14" s="6">
         <v>1</v>
       </c>
-      <c r="Y14" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="11">
+      <c r="Y14" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="6">
         <v>1</v>
       </c>
-      <c r="AA14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -10692,37 +10883,37 @@
       <c r="V15" s="6">
         <v>0</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="6">
         <v>1</v>
       </c>
-      <c r="X15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="11">
+      <c r="X15" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="6">
         <v>1</v>
       </c>
-      <c r="AE15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6"/>
@@ -10753,39 +10944,39 @@
       <c r="V16" s="6">
         <v>1</v>
       </c>
-      <c r="W16" s="11">
-        <v>2</v>
-      </c>
-      <c r="X16" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="11">
+      <c r="W16" s="6">
+        <v>2</v>
+      </c>
+      <c r="X16" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="6">
         <v>1</v>
       </c>
-      <c r="AD16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -10838,39 +11029,39 @@
       <c r="V17" s="6">
         <v>1</v>
       </c>
-      <c r="W17" s="11">
-        <v>2</v>
-      </c>
-      <c r="X17" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="11">
+      <c r="W17" s="6">
+        <v>2</v>
+      </c>
+      <c r="X17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="6">
         <v>1</v>
       </c>
-      <c r="AD17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6"/>
@@ -10901,39 +11092,39 @@
       <c r="V18" s="6">
         <v>2</v>
       </c>
-      <c r="W18" s="11">
-        <v>2</v>
-      </c>
-      <c r="X18" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="11">
+      <c r="W18" s="6">
+        <v>2</v>
+      </c>
+      <c r="X18" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="6">
         <v>1</v>
       </c>
-      <c r="AA18" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="11">
+      <c r="AA18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="6">
         <v>1</v>
       </c>
-      <c r="AE18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -10986,31 +11177,31 @@
       <c r="V19" s="6">
         <v>3</v>
       </c>
-      <c r="W19" s="11">
-        <v>2</v>
-      </c>
-      <c r="X19" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>3</v>
-      </c>
-      <c r="AE19" s="11">
+      <c r="W19" s="6">
+        <v>2</v>
+      </c>
+      <c r="X19" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="6">
         <v>3</v>
       </c>
     </row>
@@ -11018,7 +11209,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6"/>
@@ -11049,31 +11240,31 @@
       <c r="V20" s="6">
         <v>1</v>
       </c>
-      <c r="W20" s="11">
-        <v>2</v>
-      </c>
-      <c r="X20" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="11">
+      <c r="W20" s="6">
+        <v>2</v>
+      </c>
+      <c r="X20" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="6">
         <v>1</v>
       </c>
-      <c r="AD20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="11">
+      <c r="AD20" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="6">
         <v>2</v>
       </c>
     </row>
@@ -11081,7 +11272,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -11134,31 +11325,31 @@
       <c r="V21" s="6">
         <v>2</v>
       </c>
-      <c r="W21" s="11">
-        <v>2</v>
-      </c>
-      <c r="X21" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="11">
+      <c r="W21" s="6">
+        <v>2</v>
+      </c>
+      <c r="X21" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="6">
         <v>1</v>
       </c>
-      <c r="AD21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="11">
+      <c r="AD21" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="6">
         <v>3</v>
       </c>
     </row>
@@ -11166,7 +11357,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="6"/>
@@ -11191,23 +11382,45 @@
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
+      <c r="U22" s="6">
+        <v>1</v>
+      </c>
+      <c r="V22" s="6">
+        <v>3</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0</v>
+      </c>
+      <c r="X22" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -11254,23 +11467,45 @@
         <v>37</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-    </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
+      <c r="V23" s="6">
+        <v>2</v>
+      </c>
+      <c r="W23" s="6">
+        <v>2</v>
+      </c>
+      <c r="X23" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6"/>
@@ -11301,39 +11536,39 @@
       <c r="V24" s="6">
         <v>1</v>
       </c>
-      <c r="W24" s="11">
-        <v>2</v>
-      </c>
-      <c r="X24" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="6">
+        <v>2</v>
+      </c>
+      <c r="X24" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -11386,31 +11621,31 @@
       <c r="V25" s="6">
         <v>1</v>
       </c>
-      <c r="W25" s="11">
-        <v>3</v>
-      </c>
-      <c r="X25" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="11">
+      <c r="W25" s="6">
+        <v>3</v>
+      </c>
+      <c r="X25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="6">
         <v>1</v>
       </c>
-      <c r="AD25" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="11">
+      <c r="AD25" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="6">
         <v>3</v>
       </c>
     </row>
@@ -11418,7 +11653,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="6"/>
@@ -11443,23 +11678,45 @@
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
+      <c r="U26" s="6">
+        <v>2</v>
+      </c>
+      <c r="V26" s="6">
+        <v>2</v>
+      </c>
+      <c r="W26" s="6">
+        <v>1</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -11506,17 +11763,39 @@
         <v>37</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
+      <c r="U27" s="6">
+        <v>2</v>
+      </c>
+      <c r="V27" s="6">
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <v>1</v>
+      </c>
+      <c r="X27" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E28"/>
@@ -11613,7 +11892,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11713,11 +11992,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="7"/>
@@ -11752,11 +12031,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -11809,15 +12088,15 @@
       <c r="V3" s="6">
         <v>8</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6"/>
@@ -11848,15 +12127,15 @@
       <c r="V4" s="6">
         <v>5</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -11909,15 +12188,15 @@
       <c r="V5" s="6">
         <v>5</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6"/>
@@ -11948,15 +12227,15 @@
       <c r="V6" s="6">
         <v>7</v>
       </c>
-      <c r="W6" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -12009,15 +12288,15 @@
       <c r="V7" s="6">
         <v>10</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6"/>
@@ -12048,15 +12327,15 @@
       <c r="V8" s="6">
         <v>6</v>
       </c>
-      <c r="W8" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -12109,15 +12388,15 @@
       <c r="V9" s="6">
         <v>9</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -12154,15 +12433,15 @@
       <c r="V10" s="6">
         <v>3</v>
       </c>
-      <c r="W10" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -12217,15 +12496,15 @@
       <c r="V11" s="6">
         <v>10</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6"/>
@@ -12256,15 +12535,15 @@
       <c r="V12" s="6">
         <v>3</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -12317,15 +12596,15 @@
       <c r="V13" s="6">
         <v>4</v>
       </c>
-      <c r="W13" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6"/>
@@ -12356,15 +12635,15 @@
       <c r="V14" s="6">
         <v>9</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -12417,15 +12696,15 @@
       <c r="V15" s="6">
         <v>8</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6"/>
@@ -12456,15 +12735,15 @@
       <c r="V16" s="6">
         <v>7</v>
       </c>
-      <c r="W16" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -12517,15 +12796,15 @@
       <c r="V17" s="6">
         <v>9</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6"/>
@@ -12556,15 +12835,15 @@
       <c r="V18" s="6">
         <v>2</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -12617,7 +12896,7 @@
       <c r="V19" s="6">
         <v>8</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W19" s="6">
         <v>9</v>
       </c>
     </row>
@@ -12625,7 +12904,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6"/>
@@ -12656,7 +12935,7 @@
       <c r="V20" s="6">
         <v>2</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W20" s="6">
         <v>2</v>
       </c>
     </row>
@@ -12664,7 +12943,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -12717,7 +12996,7 @@
       <c r="V21" s="6">
         <v>6</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W21" s="6">
         <v>8</v>
       </c>
     </row>
@@ -12725,7 +13004,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="6"/>
@@ -12750,15 +13029,21 @@
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="11"/>
+      <c r="U22" s="6">
+        <v>5</v>
+      </c>
+      <c r="V22" s="6">
+        <v>9</v>
+      </c>
+      <c r="W22" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -12805,15 +13090,21 @@
         <v>37</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <v>10</v>
+      </c>
+      <c r="V23" s="6">
+        <v>9</v>
+      </c>
+      <c r="W23" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6"/>
@@ -12844,15 +13135,15 @@
       <c r="V24" s="6">
         <v>7</v>
       </c>
-      <c r="W24" s="11">
+      <c r="W24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -12905,7 +13196,7 @@
       <c r="V25" s="6">
         <v>10</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="6">
         <v>10</v>
       </c>
     </row>
@@ -12913,7 +13204,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="6"/>
@@ -12938,15 +13229,21 @@
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="11"/>
+      <c r="U26" s="6">
+        <v>7</v>
+      </c>
+      <c r="V26" s="6">
+        <v>8</v>
+      </c>
+      <c r="W26" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -12993,9 +13290,15 @@
         <v>37</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="11"/>
+      <c r="U27" s="6">
+        <v>9</v>
+      </c>
+      <c r="V27" s="6">
+        <v>9</v>
+      </c>
+      <c r="W27" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E28"/>
